--- a/biology/Écologie/Journal_of_Wildlife_Management/Journal_of_Wildlife_Management.xlsx
+++ b/biology/Écologie/Journal_of_Wildlife_Management/Journal_of_Wildlife_Management.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Journal of Wildlife Management (abrégé en J. Wildl. Manag.) est une revue scientifique de la Wildlife Society qui traite de tous les aspects de la gestion cynégétique. Le contenu de la revue concerne principalement les espèces nord-américaines, mais ne s’y limite pas.
